--- a/data/trans_bre/P16A02-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Dificultad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.646116356193852</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5692690106367377</v>
+        <v>0.569269010636738</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.769321598829049</v>
+        <v>5.668064561520957</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.49386158441995</v>
+        <v>11.60041976953588</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9.709970923767344</v>
+        <v>9.370232400918194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11.52045960575942</v>
+        <v>11.45028053880166</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3047794391198391</v>
+        <v>0.2949873325123641</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5139475861735792</v>
+        <v>0.533535973029956</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4431915534411415</v>
+        <v>0.4270786162097595</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3464757770922031</v>
+        <v>0.3482732682004026</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.14425521312142</v>
+        <v>13.97505980046184</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.48798728399241</v>
+        <v>19.32343575761287</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.17458439514892</v>
+        <v>16.98608511018574</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.55338604036222</v>
+        <v>23.4322159210386</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9753284403032886</v>
+        <v>0.9888045296136567</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.091266680610267</v>
+        <v>1.103769813602165</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9210085156269318</v>
+        <v>0.9003131279194487</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8490544795294703</v>
+        <v>0.8890848809023381</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.664978387500711</v>
+        <v>6.794574592357377</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.52247607354225</v>
+        <v>16.88280241545132</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.559181798698386</v>
+        <v>9.041423994396844</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.74521215030893</v>
+        <v>12.8604321920373</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4181642726225396</v>
+        <v>0.415085711218559</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9241595495955611</v>
+        <v>0.9335094344963215</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4203820608805488</v>
+        <v>0.4254728262356216</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4926982509104242</v>
+        <v>0.489775880578163</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.41110728248858</v>
+        <v>13.32997789113169</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>24.39478849453789</v>
+        <v>24.51548250961002</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>16.62994969184209</v>
+        <v>17.03819732574861</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.43564921075</v>
+        <v>20.52254916633225</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.048333454167435</v>
+        <v>1.046223705383936</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.68797081150683</v>
+        <v>1.709290419365807</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.00131655672124</v>
+        <v>1.035433509161138</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9466509470548524</v>
+        <v>0.9475326259918538</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>12.0876858924888</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14.75664980895873</v>
+        <v>14.75664980895874</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5782356008791462</v>
@@ -849,7 +849,7 @@
         <v>0.6938774675868556</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.6827091175805271</v>
+        <v>0.6827091175805274</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.361804333265035</v>
+        <v>4.337427152123507</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.403115952729841</v>
+        <v>7.201095140433694</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.730436446778392</v>
+        <v>7.61877278220755</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10.91112497920333</v>
+        <v>10.99043453192562</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.306928324173507</v>
+        <v>0.3094967445836599</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3626159448451745</v>
+        <v>0.3435545453413864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3870873904430247</v>
+        <v>0.3936207979287604</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.4545185077404026</v>
+        <v>0.4473505899958138</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.73875955513653</v>
+        <v>10.83737336263519</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.75256986599905</v>
+        <v>15.20090858882142</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.9295959956172</v>
+        <v>16.38331632885657</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.38710038535371</v>
+        <v>18.42894675643462</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9184132866238626</v>
+        <v>0.9259725708299338</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9517710315575451</v>
+        <v>0.8941539633112117</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.092559621859039</v>
+        <v>1.065670078114301</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9605009813903536</v>
+        <v>0.9344894205048342</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>7.051266310867516</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10.82995902960475</v>
+        <v>10.82995902960474</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.966976366136763</v>
@@ -949,7 +949,7 @@
         <v>0.3670450820148216</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4665511465367532</v>
+        <v>0.466551146536753</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.629003141387694</v>
+        <v>6.408715771862732</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.274883141771189</v>
+        <v>6.380295255111325</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.319734325876414</v>
+        <v>2.153923224821131</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.487706269303207</v>
+        <v>6.59486148958453</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4574326310285881</v>
+        <v>0.4450148608152109</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3584862582050486</v>
+        <v>0.3487789169560103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05677529498268759</v>
+        <v>0.09221813891525396</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2430284647286228</v>
+        <v>0.2559312161535208</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.26588848396407</v>
+        <v>17.36897908321015</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.59968596713377</v>
+        <v>17.16407868357745</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.42784093011333</v>
+        <v>12.89223132165745</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14.94522519269884</v>
+        <v>14.57532518488519</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.745284059047654</v>
+        <v>1.792054284161464</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.346194002974115</v>
+        <v>1.3079277247322</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7509705663682804</v>
+        <v>0.8041322278769955</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.701612322782757</v>
+        <v>0.6947688157619892</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>12.15395620536531</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15.04151292389847</v>
+        <v>15.04151292389846</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7062858169570441</v>
@@ -1049,7 +1049,7 @@
         <v>0.6417682788172463</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.6287056992529094</v>
+        <v>0.628705699252909</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.888182451701035</v>
+        <v>7.787583981348277</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.49778080228669</v>
+        <v>13.4952363105157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.11510933214495</v>
+        <v>9.9317105736183</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12.87154851655561</v>
+        <v>12.87922170950112</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5357852239134763</v>
+        <v>0.525485233397306</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7219981644145971</v>
+        <v>0.7195216227591648</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5025992422464505</v>
+        <v>0.498235688722201</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.5100056238928541</v>
+        <v>0.5074995807748444</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.61246446657857</v>
+        <v>11.61865003790475</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.68454480762294</v>
+        <v>17.85760722524284</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.36806176736071</v>
+        <v>14.23657003720313</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.03593798322416</v>
+        <v>17.09391145163671</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.895721869503733</v>
+        <v>0.8994707579958677</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.047090276764475</v>
+        <v>1.08170426891597</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7978108286527127</v>
+        <v>0.7889915307703642</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.744688620217509</v>
+        <v>0.7511958130749249</v>
       </c>
     </row>
     <row r="19">
